--- a/dbs/成本核算测试原始数据.xlsx
+++ b/dbs/成本核算测试原始数据.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19455" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="业务数据" sheetId="1" r:id="rId1"/>
     <sheet name="基础数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>科室代码</t>
+  </si>
   <si>
     <t>科室</t>
   </si>
   <si>
-    <t>科室代码</t>
-  </si>
-  <si>
     <t>人员经费①</t>
   </si>
   <si>
@@ -44,12 +44,51 @@
     <t>其他费用⑦</t>
   </si>
   <si>
+    <t>人员数</t>
+  </si>
+  <si>
+    <t>工作量</t>
+  </si>
+  <si>
+    <t>开单工作量</t>
+  </si>
+  <si>
+    <t>消毒工作量</t>
+  </si>
+  <si>
+    <t>住院人数</t>
+  </si>
+  <si>
+    <t>门诊量</t>
+  </si>
+  <si>
     <t>行政后勤1</t>
   </si>
   <si>
     <t>行政后勤2</t>
   </si>
   <si>
+    <t>医辅-门诊收费处</t>
+  </si>
+  <si>
+    <t>医辅2-挂号处</t>
+  </si>
+  <si>
+    <t>医辅3-供应室</t>
+  </si>
+  <si>
+    <t>医辅4-住院收费处</t>
+  </si>
+  <si>
+    <t>医辅5-病案室</t>
+  </si>
+  <si>
+    <t>医辅-门诊科室</t>
+  </si>
+  <si>
+    <t>医辅</t>
+  </si>
+  <si>
     <t>医技1</t>
   </si>
   <si>
@@ -59,85 +98,30 @@
     <t>医技3</t>
   </si>
   <si>
+    <t>临床1-门诊</t>
+  </si>
+  <si>
+    <t>临床2-住院</t>
+  </si>
+  <si>
     <t>临床3</t>
-  </si>
-  <si>
-    <t>医辅-门诊收费处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅2-挂号处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅3-供应室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床1-门诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床2-住院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅4-住院收费处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅5-病案室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消毒工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅-门诊科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医辅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开单工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +129,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,44 +136,377 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -224,20 +540,268 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -246,104 +810,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -355,7 +884,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -390,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,71 +1162,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5">
+    <row r="1" ht="40.5" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>29</v>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -733,12 +1263,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -774,12 +1304,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -815,12 +1345,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
@@ -856,12 +1386,12 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>25</v>
@@ -897,11 +1427,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1">
@@ -938,11 +1468,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
@@ -979,12 +1509,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:13">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>78</v>
@@ -1020,12 +1550,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>123</v>
@@ -1061,12 +1591,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>14</v>
@@ -1102,12 +1632,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:13">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
@@ -1143,12 +1673,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -1185,11 +1715,11 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>17</v>
@@ -1228,12 +1758,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:14">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>18</v>
@@ -1272,12 +1802,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:13">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>19</v>
@@ -1314,22 +1844,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>